--- a/testresults/java-connection-pool-size/Copy of java-60.xlsx
+++ b/testresults/java-connection-pool-size/Copy of java-60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>dbaverage</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>90 connections</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,11 @@
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,6 +154,725 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time in relation to throughput </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>averagert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>14259.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61806.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115050.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165994.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213444.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244269.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267665.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294358.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311831.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313971.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>322768.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>338778.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340092.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337401.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>343322.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346909.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>351939.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>353499.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>358622.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>359610.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>367440.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>368460.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7.88126797110597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.14982364171763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.75528900478053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.08723206862899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.42748449241956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.25744977872755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.2083275736462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8723595078102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.7700356924103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2307346856875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3553667030189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0633305586549</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.4315949801818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.561506930922</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.691889829373</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.876149076559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.9683950911948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.2461110215305</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.2818733931549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.5889630432969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.3898895057696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.6085138142539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dbaverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>14259.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61806.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115050.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165994.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213444.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244269.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267665.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294358.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311831.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313971.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>322768.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>338778.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340092.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337401.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>343322.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346909.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>351939.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>353499.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>358622.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>359610.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>367440.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>368460.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.31607763517778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11271658091447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12324384180791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17161445594419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.29953644515658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.50348514547487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.70102271496087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0272689785907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2203196539151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.41952257055588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.67007899172161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.41266331934187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.66443399139056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.60814309086221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7847733497999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6557178136053</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.75377153711297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.69036869977001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.76927702148781</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.73531867300687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.66298331156107</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7623225099061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="484059824"/>
+        <c:axId val="433107056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="484059824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433107056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433107056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484059824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -169,7 +895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -996,11 +1721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-682999920"/>
-        <c:axId val="-717199200"/>
+        <c:axId val="475758016"/>
+        <c:axId val="403579728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-717199200"/>
+        <c:axId val="403579728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1756,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1055,12 +1779,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-682999920"/>
+        <c:crossAx val="475758016"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-682999920"/>
+        <c:axId val="475758016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1806,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -1105,7 +1828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-717199200"/>
+        <c:crossAx val="403579728"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1121,7 +1844,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1157,7 +1879,598 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="4275734" y="305958"/>
@@ -1167,7 +2480,7 @@
         <xdr:cNvPr id="2" name="shape" title="connection pool size">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6F3DBEF-7070-42A0-B8FE-3484BA4F8D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F3DBEF-7070-42A0-B8FE-3484BA4F8D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,13 +2502,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:H23" totalsRowShown="0">
-  <sortState ref="A3:H23">
-    <sortCondition ref="F2:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B1:J23" totalsRowShown="0">
+  <sortState ref="B3:K23">
+    <sortCondition ref="H2:H23"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
+    <tableColumn id="2" name="averagert"/>
     <tableColumn id="1" name="dbaverage"/>
-    <tableColumn id="2" name="averagert"/>
+    <tableColumn id="10" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>C2/1000</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" name="trueparallel"/>
     <tableColumn id="4" name="maxrt"/>
     <tableColumn id="5" name="totalrequests"/>
@@ -1517,617 +2833,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1316.0776351777799</v>
+        <v>14259</v>
       </c>
       <c r="B2">
         <v>7.8812679711059701</v>
       </c>
       <c r="C2">
+        <v>1.3160776351777799</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="C2:D23" si="0">C2/1000</f>
+        <v>1.3160776351777799E-3</v>
+      </c>
+      <c r="E2">
         <v>1.8678605091521101</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1003</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>14259</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1112.7165809144699</v>
+        <v>61806</v>
       </c>
       <c r="B3">
         <v>7.1498236417176297</v>
       </c>
       <c r="C3">
+        <v>1.1127165809144699</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1.1127165809144699E-3</v>
+      </c>
+      <c r="E3">
         <v>7.3643183509691603</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>167</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>61806</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1123.24384180791</v>
+        <v>115050</v>
       </c>
       <c r="B4">
         <v>7.7552890047805301</v>
       </c>
       <c r="C4">
+        <v>1.12324384180791</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.12324384180791E-3</v>
+      </c>
+      <c r="E4">
         <v>14.866889022164299</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>295</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>115050</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1171.61445594419</v>
+        <v>165994</v>
       </c>
       <c r="B5">
         <v>8.0872320686289907</v>
       </c>
       <c r="C5">
+        <v>1.1716144559441901</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.17161445594419E-3</v>
+      </c>
+      <c r="E5">
         <v>22.369283901827799</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>194</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>165994</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1299.5364451565799</v>
+        <v>213444</v>
       </c>
       <c r="B6">
         <v>8.4274844924195609</v>
       </c>
       <c r="C6">
+        <v>1.2995364451565798</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.2995364451565798E-3</v>
+      </c>
+      <c r="E6">
         <v>29.9765623395364</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>266</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>213444</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1503.48514547487</v>
+        <v>244269</v>
       </c>
       <c r="B7">
         <v>9.2574497787275494</v>
       </c>
       <c r="C7">
+        <v>1.5034851454748701</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.5034851454748701E-3</v>
+      </c>
+      <c r="E7">
         <v>37.687078049199897</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1005</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>244269</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1701.02271496087</v>
+        <v>267665</v>
       </c>
       <c r="B8">
         <v>10.2083275736462</v>
       </c>
       <c r="C8">
+        <v>1.7010227149608699</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.70102271496087E-3</v>
+      </c>
+      <c r="E8">
         <v>45.539349306035497</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1015</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>267665</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>24</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2027.2689785907</v>
+        <v>294358</v>
       </c>
       <c r="B9">
         <v>10.8723595078102</v>
       </c>
       <c r="C9">
+        <v>2.0272689785906999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.0272689785906998E-3</v>
+      </c>
+      <c r="E9">
         <v>53.328923385809098</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>251</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>294358</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>28</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>2220.3196539150999</v>
+        <v>311831</v>
       </c>
       <c r="B10">
         <v>11.7700356924103</v>
       </c>
       <c r="C10">
+        <v>2.2203196539150998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.2203196539150997E-3</v>
+      </c>
+      <c r="E10">
         <v>61.168875493456397</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1023</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>311831</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>2419.5225705558801</v>
+        <v>313971</v>
       </c>
       <c r="B11">
         <v>13.2307346856875</v>
       </c>
       <c r="C11">
+        <v>2.41952257055588</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.4195225705558802E-3</v>
+      </c>
+      <c r="E11">
         <v>69.2232038755172</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1048</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>313971</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>36</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>2670.0789917216098</v>
+        <v>322768</v>
       </c>
       <c r="B12">
         <v>14.3553667030189</v>
       </c>
       <c r="C12">
+        <v>2.6700789917216099</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.67007899172161E-3</v>
+      </c>
+      <c r="E12">
         <v>77.217517495538601</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>1065</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>322768</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>40</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>2412.6633193418702</v>
+        <v>338778</v>
       </c>
       <c r="B13">
         <v>15.063330558654901</v>
       </c>
       <c r="C13">
+        <v>2.4126633193418701</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.41266331934187E-3</v>
+      </c>
+      <c r="E13">
         <v>85.047564334165699</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>3041</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>338778</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>44</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>2664.4339913905601</v>
+        <v>340092</v>
       </c>
       <c r="B14">
         <v>16.431594980181799</v>
       </c>
       <c r="C14">
+        <v>2.6644339913905601</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.6644339913905603E-3</v>
+      </c>
+      <c r="E14">
         <v>93.134280347670597</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>3025</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>340092</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>48</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2608.1430908622101</v>
+        <v>337401</v>
       </c>
       <c r="B15">
         <v>16.561506930922</v>
       </c>
       <c r="C15">
+        <v>2.6081430908622103</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.6081430908622104E-3</v>
+      </c>
+      <c r="E15">
         <v>93.125353472574204</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>3023</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>337401</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>2784.7733497999002</v>
+        <v>343322</v>
       </c>
       <c r="B16">
         <v>17.691889829373</v>
       </c>
       <c r="C16">
+        <v>2.7847733497999001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.7847733497998999E-3</v>
+      </c>
+      <c r="E16">
         <v>101.232993603672</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>3021</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>343322</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>52</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>2655.7178136052999</v>
+        <v>346909</v>
       </c>
       <c r="B17">
         <v>18.876149076558999</v>
       </c>
       <c r="C17">
+        <v>2.6557178136052997</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2.6557178136052996E-3</v>
+      </c>
+      <c r="E17">
         <v>109.123017811587</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>3033</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>346909</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2753.7715371129698</v>
+        <v>351939</v>
       </c>
       <c r="B18">
         <v>19.9683950911948</v>
       </c>
       <c r="C18">
+        <v>2.7537715371129696</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.7537715371129695E-3</v>
+      </c>
+      <c r="E18">
         <v>117.11463720985699</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>3029</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>351939</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>60</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>2690.3686997700102</v>
+        <v>353499</v>
       </c>
       <c r="B19">
         <v>21.246111021530499</v>
       </c>
       <c r="C19">
+        <v>2.6903686997700103</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2.6903686997700104E-3</v>
+      </c>
+      <c r="E19">
         <v>125.160840027836</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>3054</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>353499</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>64</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>2769.2770214878101</v>
+        <v>358622</v>
       </c>
       <c r="B20">
         <v>22.2818733931549</v>
       </c>
       <c r="C20">
+        <v>2.76927702148781</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.7692770214878099E-3</v>
+      </c>
+      <c r="E20">
         <v>133.17875727088699</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>3046</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>358622</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>68</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>2735.3186730068701</v>
+        <v>359610</v>
       </c>
       <c r="B21">
         <v>23.5889630432969</v>
       </c>
       <c r="C21">
+        <v>2.7353186730068701</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.7353186730068703E-3</v>
+      </c>
+      <c r="E21">
         <v>141.36865551847799</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>5017</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>359610</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>72</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>2662.98331156107</v>
+        <v>367440</v>
       </c>
       <c r="B22">
         <v>24.389889505769599</v>
       </c>
       <c r="C22">
+        <v>2.6629833115610699</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.6629833115610698E-3</v>
+      </c>
+      <c r="E22">
         <v>149.363683333333</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>5020</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>367440</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>76</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>2762.3225099061001</v>
+        <v>368460</v>
       </c>
       <c r="B23">
         <v>25.6085138142539</v>
       </c>
       <c r="C23">
+        <v>2.7623225099061002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.7623225099061002E-3</v>
+      </c>
+      <c r="E23">
         <v>157.261883333333</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>5012</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>368460</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>80</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>22</v>
       </c>
     </row>
@@ -2137,8 +3616,9 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
